--- a/notebooks/assets/test_random_selection/kerasnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/kerasnh3_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.547</v>
+        <v>5.366</v>
       </c>
       <c r="C2" t="n">
-        <v>4.119</v>
+        <v>2.171</v>
       </c>
       <c r="D2" t="n">
-        <v>7.58</v>
+        <v>4.478</v>
       </c>
       <c r="E2" t="n">
-        <v>8.597</v>
+        <v>6.45</v>
       </c>
       <c r="F2" t="n">
-        <v>4.331</v>
+        <v>3.243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231.274</v>
+        <v>6.533</v>
       </c>
       <c r="C3" t="n">
-        <v>35.122</v>
+        <v>2.939</v>
       </c>
       <c r="D3" t="n">
-        <v>106.139</v>
+        <v>5.739</v>
       </c>
       <c r="E3" t="n">
-        <v>169.276</v>
+        <v>8.429</v>
       </c>
       <c r="F3" t="n">
-        <v>58.133</v>
+        <v>4.651</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.122</v>
+        <v>50.173</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01</v>
+        <v>9.349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.117</v>
+        <v>35.841</v>
       </c>
       <c r="E4" t="n">
-        <v>0.185</v>
+        <v>71.58199999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.062</v>
+        <v>24.999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.283</v>
+        <v>0.802</v>
       </c>
       <c r="C5" t="n">
-        <v>4.559</v>
+        <v>0.721</v>
       </c>
       <c r="D5" t="n">
-        <v>8.412000000000001</v>
+        <v>0.722</v>
       </c>
       <c r="E5" t="n">
-        <v>7.581</v>
+        <v>0.615</v>
       </c>
       <c r="F5" t="n">
-        <v>3.033</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.979</v>
+        <v>7.283</v>
       </c>
       <c r="C6" t="n">
-        <v>36.499</v>
+        <v>4.559</v>
       </c>
       <c r="D6" t="n">
-        <v>135.704</v>
+        <v>8.412000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>123.934</v>
+        <v>7.581</v>
       </c>
       <c r="F6" t="n">
-        <v>16.818</v>
+        <v>3.033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.867000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.874</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.072</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.979</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>135.704</v>
+      </c>
+      <c r="E8" t="n">
+        <v>123.934</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.818</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.71</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-0.106</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.034</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.425</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.591</v>
       </c>
     </row>
